--- a/InterviewTest/output/230168/230168_failed.xlsx
+++ b/InterviewTest/output/230168/230168_failed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230168\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001B6FFE-CCF8-4D6F-A426-74E3AC49D967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C573597-555B-49BF-9CF4-464DAD691FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <t>null</t>
   </si>
   <si>
-    <t>Example:  ANH_CH: 13.75</t>
+    <t>Example:  ANH_CH: 20.95</t>
   </si>
   <si>
     <t>Fail</t>

--- a/InterviewTest/output/230168/230168_failed.xlsx
+++ b/InterviewTest/output/230168/230168_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230168\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230168\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C573597-555B-49BF-9CF4-464DAD691FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9ACAC4-9BC8-4A1D-8E55-B07F72FE0D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="29970" yWindow="1170" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t xml:space="preserve">Field </t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Lại Quốc Hưng</t>
+  </si>
+  <si>
+    <t>29/09/2008</t>
   </si>
   <si>
     <t>null</t>
@@ -163,15 +166,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -541,8 +541,8 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>39720</v>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -574,7 +574,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -582,7 +582,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -598,7 +598,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -606,7 +606,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -614,7 +614,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -622,7 +622,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -630,7 +630,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -646,7 +646,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/InterviewTest/output/230168/230168_failed.xlsx
+++ b/InterviewTest/output/230168/230168_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230168\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230168\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9ACAC4-9BC8-4A1D-8E55-B07F72FE0D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C856BC-2A85-4F9F-BD7E-3779C637742A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="1170" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
